--- a/documentatie/datadictionary/datadictionary.xlsx
+++ b/documentatie/datadictionary/datadictionary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\school lj2\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\Barroc_IT2\Barroc-IT\documentatie\datadictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{351E9214-C4E6-471F-801A-6A99912C02A5}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{351E9214-C4E6-471F-801A-6A99912C02A5}"/>
   </bookViews>
   <sheets>
     <sheet name="datadictionary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="106">
   <si>
     <t>tbl_finances</t>
   </si>
@@ -331,14 +331,26 @@
     <t>0-99</t>
   </si>
   <si>
-    <t>timestamp</t>
+    <t>TBL_FINANCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TBL_SALES</t>
+  </si>
+  <si>
+    <t>TBL_DEVELOPMENTS</t>
+  </si>
+  <si>
+    <t>TBL_KLANTEN</t>
+  </si>
+  <si>
+    <t>datatime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +389,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -423,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -487,6 +507,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -495,8 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -512,16 +543,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,6 +555,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -843,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E93AC09-7345-47F6-A322-BE6FE86ADAA1}">
-  <dimension ref="C1:G74"/>
+  <dimension ref="C1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,899 +890,950 @@
     <col min="7" max="7" width="78.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="18" t="s">
+    <row r="1" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="12" t="s">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="10" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="G11" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="G12" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="G13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="G15" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="16"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="25" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C57" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D57" t="s">
         <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="10" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
         <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="10" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="19">
-        <v>255</v>
+      <c r="E62" t="s">
+        <v>43</v>
       </c>
       <c r="F62" t="s">
         <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="10" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
         <v>38</v>
       </c>
-      <c r="E63" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C65" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C67" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C68" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C69" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C70" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="30">
-        <v>42993</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>94</v>
+      <c r="E70" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C71" s="8" t="s">
-        <v>87</v>
+      <c r="C71" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
-      </c>
-      <c r="E71" s="30">
-        <v>42993</v>
-      </c>
-      <c r="F71" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" t="s">
         <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C72" s="8" t="s">
-        <v>88</v>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>64</v>
-      </c>
-      <c r="F72" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" t="s">
         <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C73" s="8" t="s">
-        <v>89</v>
+      <c r="C73" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D73" t="s">
         <v>39</v>
       </c>
       <c r="E73" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" t="s">
+        <v>60</v>
+      </c>
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" t="s">
         <v>59</v>
       </c>
-      <c r="F73" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C84" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C88" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="16">
+        <v>255</v>
+      </c>
+      <c r="F88" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C89" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C91" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C92" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C93" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C94" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C95" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C96" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" s="23">
+        <v>42993</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C97" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="23">
+        <v>42993</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C98" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C99" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C74" s="8" t="s">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C100" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D100" t="s">
         <v>38</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E100" t="s">
         <v>64</v>
       </c>
-      <c r="F74" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F100" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G100" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentatie/datadictionary/datadictionary.xlsx
+++ b/documentatie/datadictionary/datadictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{351E9214-C4E6-471F-801A-6A99912C02A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{351E9214-C4E6-471F-801A-6A99912C02A5}"/>
   </bookViews>
   <sheets>
     <sheet name="datadictionary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
   <si>
     <t>tbl_finances</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>datatime</t>
+  </si>
+  <si>
+    <t>TBL_PROJECTS</t>
+  </si>
+  <si>
+    <t>project_id</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +448,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -520,11 +532,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -562,6 +615,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -876,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E93AC09-7345-47F6-A322-BE6FE86ADAA1}">
-  <dimension ref="C1:G100"/>
+  <dimension ref="C1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,272 +1086,152 @@
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="8" t="s">
+      <c r="C28" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="8" t="s">
+    <row r="29" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="26" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="26" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="9" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C59" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C60" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C61" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
         <v>38</v>
@@ -1303,419 +1243,447 @@
         <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
         <v>40</v>
       </c>
-      <c r="E65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>37</v>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C70" s="4" t="s">
-        <v>1</v>
+      <c r="C70" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C71" s="4" t="s">
-        <v>2</v>
+      <c r="C71" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="D71" t="s">
         <v>39</v>
       </c>
       <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C73" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C77" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" t="s">
         <v>61</v>
       </c>
-      <c r="F71" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C72" s="5" t="s">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E80" t="s">
         <v>62</v>
       </c>
-      <c r="F72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F80" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C73" s="5" t="s">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D81" t="s">
         <v>39</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E81" t="s">
         <v>60</v>
       </c>
-      <c r="F73" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F81" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C74" s="5" t="s">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D82" t="s">
         <v>39</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E82" t="s">
         <v>60</v>
       </c>
-      <c r="F74" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F82" t="s">
+        <v>41</v>
+      </c>
+      <c r="G82" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C75" s="5" t="s">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C83" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D83" t="s">
         <v>39</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E83" t="s">
         <v>60</v>
       </c>
-      <c r="F75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C76" s="5" t="s">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C84" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" t="s">
-        <v>60</v>
-      </c>
-      <c r="F76" t="s">
-        <v>41</v>
-      </c>
-      <c r="G76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C77" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" t="s">
-        <v>62</v>
-      </c>
-      <c r="F77" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C78" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E78" t="s">
-        <v>59</v>
-      </c>
-      <c r="F78" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C81" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C82" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C83" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" t="s">
-        <v>64</v>
-      </c>
-      <c r="F83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C84" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D84" t="s">
         <v>39</v>
       </c>
       <c r="E84" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C89" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C90" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C91" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" t="s">
+        <v>41</v>
+      </c>
+      <c r="G91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C92" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" t="s">
         <v>65</v>
       </c>
-      <c r="F84" t="s">
-        <v>41</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="F92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G92" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C85" s="8" t="s">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C93" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D93" t="s">
         <v>38</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E93" t="s">
         <v>64</v>
       </c>
-      <c r="F85" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="F93" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C86" s="8" t="s">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C94" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="D86" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" t="s">
-        <v>64</v>
-      </c>
-      <c r="F86" t="s">
-        <v>41</v>
-      </c>
-      <c r="G86" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C87" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F87" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C88" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88" s="16">
-        <v>255</v>
-      </c>
-      <c r="F88" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C89" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" t="s">
-        <v>38</v>
-      </c>
-      <c r="E89" t="s">
-        <v>64</v>
-      </c>
-      <c r="F89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C91" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C92" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C93" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E93" t="s">
-        <v>100</v>
-      </c>
-      <c r="F93" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G93" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C94" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D94" t="s">
         <v>38</v>
@@ -1723,112 +1691,220 @@
       <c r="E94" t="s">
         <v>64</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F94" t="s">
         <v>41</v>
       </c>
       <c r="G94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C95" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C96" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="16">
+        <v>255</v>
+      </c>
+      <c r="F96" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C97" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C99" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C100" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C101" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C102" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C95" s="6" t="s">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C103" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D103" t="s">
         <v>38</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E103" t="s">
         <v>64</v>
       </c>
-      <c r="F95" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" s="20" t="s">
+      <c r="F103" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C96" s="6" t="s">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C104" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D104" t="s">
         <v>105</v>
       </c>
-      <c r="E96" s="23">
+      <c r="E104" s="23">
         <v>42993</v>
       </c>
-      <c r="F96" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" s="21" t="s">
+      <c r="F104" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C97" s="6" t="s">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C105" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D105" t="s">
         <v>105</v>
       </c>
-      <c r="E97" s="23">
+      <c r="E105" s="23">
         <v>42993</v>
       </c>
-      <c r="F97" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="F105" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C98" s="6" t="s">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C106" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D106" t="s">
         <v>38</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E106" t="s">
         <v>64</v>
       </c>
-      <c r="F98" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="F106" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C99" s="6" t="s">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C107" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D107" t="s">
         <v>39</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E107" t="s">
         <v>59</v>
       </c>
-      <c r="F99" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="F107" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C100" s="6" t="s">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C108" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D108" t="s">
         <v>38</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E108" t="s">
         <v>64</v>
       </c>
-      <c r="F100" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="F108" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G108" t="s">
         <v>98</v>
       </c>
     </row>
